--- a/outputs-HGR-r202/test-o__Erysipelotrichales_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-o__Erysipelotrichales_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t>Row</t>
   </si>
@@ -121,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -131,14 +131,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -158,21 +162,21 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -186,7 +190,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -200,7 +204,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -214,7 +218,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -228,252 +232,252 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>0.99955819239098787</v>
+        <v>0.057682160601262189</v>
       </c>
       <c r="C6">
-        <v>0.00044180760901208171</v>
+        <v>0.94231783939873781</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>0.057682160601262189</v>
+        <v>0.99937737879561961</v>
       </c>
       <c r="C7">
-        <v>0.94231783939873781</v>
+        <v>0.00062262120438038031</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>0.99937737879561961</v>
+        <v>0.019915033030116214</v>
       </c>
       <c r="C8">
-        <v>0.00062262120438038031</v>
+        <v>0.98008496696988379</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>0.019915033030116214</v>
+        <v>0.99997159977616279</v>
       </c>
       <c r="C9">
-        <v>0.98008496696988379</v>
+        <v>2.8400223837222757e-05</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>0.99997159977616279</v>
+        <v>0.85691248435768519</v>
       </c>
       <c r="C10">
-        <v>2.8400223837222757e-05</v>
+        <v>0.14308751564231487</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>0.85691248435768519</v>
+        <v>0.9999723514345481</v>
       </c>
       <c r="C11">
-        <v>0.14308751564231487</v>
+        <v>2.7648565451858876e-05</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
+      <c r="A12" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>0.9999723514345481</v>
+        <v>0.99996926443855427</v>
       </c>
       <c r="C12">
-        <v>2.7648565451858876e-05</v>
+        <v>3.0735561445759353e-05</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+      <c r="A13" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>0.99996926443855427</v>
+        <v>0.99998847026114068</v>
       </c>
       <c r="C13">
-        <v>3.0735561445759353e-05</v>
+        <v>1.1529738859337361e-05</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
+      <c r="A14" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>0.99998847026114068</v>
+        <v>0.99733418411902808</v>
       </c>
       <c r="C14">
-        <v>1.1529738859337361e-05</v>
+        <v>0.0026658158809719406</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
+      <c r="A15" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>0.99733418411902808</v>
+        <v>0.99992785773746573</v>
       </c>
       <c r="C15">
-        <v>0.0026658158809719406</v>
+        <v>7.2142262534314724e-05</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
+      <c r="A16" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>0.99992785773746573</v>
+        <v>0.039037731337739801</v>
       </c>
       <c r="C16">
-        <v>7.2142262534314724e-05</v>
+        <v>0.9609622686622602</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
+      <c r="A17" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>0.039037731337739801</v>
+        <v>0.0095787446378318153</v>
       </c>
       <c r="C17">
-        <v>0.9609622686622602</v>
+        <v>0.99042125536216818</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
+      <c r="A18" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>0.0095787446378318153</v>
+        <v>0.99999088115921342</v>
       </c>
       <c r="C18">
-        <v>0.99042125536216818</v>
+        <v>9.1188407865557309e-06</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
+      <c r="A19" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>0.99999088115921342</v>
+        <v>0.012648519177233197</v>
       </c>
       <c r="C19">
-        <v>9.1188407865557309e-06</v>
+        <v>0.9873514808227668</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
+      <c r="A20" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>0.012648519177233197</v>
+        <v>0.02472802024500842</v>
       </c>
       <c r="C20">
-        <v>0.9873514808227668</v>
+        <v>0.97527197975499158</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
+      <c r="A21" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>0.02472802024500842</v>
+        <v>0.016870332139859112</v>
       </c>
       <c r="C21">
-        <v>0.97527197975499158</v>
+        <v>0.98312966786014089</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
+      <c r="A22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>0.016870332139859112</v>
+        <v>0.018176574891038855</v>
       </c>
       <c r="C22">
-        <v>0.98312966786014089</v>
+        <v>0.98182342510896115</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
+      <c r="A23" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>0.0053756129200256408</v>
+        <v>0.01132982340334554</v>
       </c>
       <c r="C23">
-        <v>0.99462438707997436</v>
+        <v>0.98867017659665446</v>
       </c>
       <c r="D23">
         <v>2</v>

--- a/outputs-HGR-r202/test-o__Erysipelotrichales_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-o__Erysipelotrichales_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Row</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>even_MAG-GUT5880.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT59590.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT7064.fa</t>
@@ -151,7 +154,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -165,13 +168,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -487,10 +490,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.0053756129200256408</v>
+        <v>0.016870332139859112</v>
       </c>
       <c r="C24">
-        <v>0.99462438707997436</v>
+        <v>0.98312966786014089</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -501,10 +504,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.077117312353802259</v>
+        <v>0.0053756129200256408</v>
       </c>
       <c r="C25">
-        <v>0.92288268764619774</v>
+        <v>0.99462438707997436</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -515,10 +518,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.34828021595142711</v>
+        <v>0.077117312353802259</v>
       </c>
       <c r="C26">
-        <v>0.65171978404857289</v>
+        <v>0.92288268764619774</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -529,12 +532,26 @@
         <v>26</v>
       </c>
       <c r="B27">
+        <v>0.34828021595142711</v>
+      </c>
+      <c r="C27">
+        <v>0.65171978404857289</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
         <v>0.01132982340334554</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>0.98867017659665446</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>2</v>
       </c>
     </row>
